--- a/资源分配.xlsx
+++ b/资源分配.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlecat\Desktop\system_board_0405_1507\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlecat\Desktop\system_board_0405_2349\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="277">
   <si>
     <t>PCR[12]</t>
   </si>
@@ -48,39 +48,21 @@
     <t>PCR[18]</t>
   </si>
   <si>
-    <t>LIN0TX</t>
-  </si>
-  <si>
     <t>PCR[19]</t>
   </si>
   <si>
-    <t>LIN0RX</t>
-  </si>
-  <si>
     <t>PCR[38]</t>
   </si>
   <si>
-    <t>LIN1TX</t>
-  </si>
-  <si>
     <t>PCR[39]</t>
   </si>
   <si>
-    <t>LIN1RX</t>
-  </si>
-  <si>
     <t>PCR[40]</t>
   </si>
   <si>
-    <t>LIN2TX</t>
-  </si>
-  <si>
     <t>PCR[41]</t>
   </si>
   <si>
-    <t>LIN2RX</t>
-  </si>
-  <si>
     <t>PCR[69]</t>
   </si>
   <si>
@@ -102,9 +84,6 @@
     <t>信号接收舵机</t>
   </si>
   <si>
-    <t>CH[10]</t>
-  </si>
-  <si>
     <t>光编</t>
   </si>
   <si>
@@ -162,21 +141,9 @@
     <t>[148]</t>
   </si>
   <si>
-    <t>CH[2]</t>
-  </si>
-  <si>
-    <t>INTC.PSR[142]</t>
-  </si>
-  <si>
     <t>PCR[4]</t>
   </si>
   <si>
-    <t>CH[4]</t>
-  </si>
-  <si>
-    <t>INTC.PSR[143]</t>
-  </si>
-  <si>
     <t>PCR[5]</t>
   </si>
   <si>
@@ -270,10 +237,6 @@
     <t>超声波2RIGHT</t>
   </si>
   <si>
-    <t>超声波2MID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,22 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I2CSDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I2CSCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引脚冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,18 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>原为A10，与I2C冲突，要换成F4[46]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原为A3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底层未加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超声波3MID</t>
   </si>
   <si>
@@ -837,7 +772,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA3</t>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH[12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_3 LIN3RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_3 LIN3TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_2 LIN2TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_1 LIN1TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_0 LIN0TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_2 LIN2RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_1 LIN1RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINFlex_0 LIN0RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[3]</t>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[4]</t>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[2]</t>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[5]</t>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -845,75 +924,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PA5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA12</t>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波3MID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eMIOS_0 E0UC[7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超声波4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与超声冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C SCL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -921,7 +968,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,13 +984,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -960,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,11 +1031,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1009,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J43" totalsRowShown="0">
-  <autoFilter ref="A1:J43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J51" totalsRowShown="0">
+  <autoFilter ref="A1:J51"/>
   <tableColumns count="10">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="PCR"/>
@@ -1290,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1305,34 +1379,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -1344,10 +1418,10 @@
         <v>PCR[12]</v>
       </c>
       <c r="C2" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -1362,10 +1436,10 @@
         <v>PCR[13]</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -1380,10 +1454,10 @@
         <v>PCR[14]</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -1398,10 +1472,10 @@
         <v>PCR[15]</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1416,13 +1490,13 @@
         <v>PCR[18]</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -1434,13 +1508,13 @@
         <v>PCR[19]</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
+        <v>237</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -1452,13 +1526,13 @@
         <v>PCR[38]</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
+        <v>236</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -1470,13 +1544,13 @@
         <v>PCR[39]</v>
       </c>
       <c r="C9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
+        <v>235</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -1488,13 +1562,13 @@
         <v>PCR[40]</v>
       </c>
       <c r="C10" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>234</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -1506,13 +1580,13 @@
         <v>PCR[41]</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
+        <v>233</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -1524,16 +1598,16 @@
         <v>PCR[69]</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -1545,16 +1619,16 @@
         <v>PCR[70]</v>
       </c>
       <c r="C13" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -1566,40 +1640,37 @@
         <v>PCR[9]</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
-      </c>
-      <c r="E14" t="s">
-        <v>69</v>
+        <v>230</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="e">
+      <c r="B15" s="2" t="str">
         <f>VLOOKUP($C15:$C15,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PCR[44]</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>93</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1611,16 +1682,16 @@
         <v>PCR[60]</v>
       </c>
       <c r="C16" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
@@ -1632,13 +1703,13 @@
         <v>PCR[28]</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1650,16 +1721,16 @@
         <v>PCR[65]</v>
       </c>
       <c r="C18" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1674,16 +1745,16 @@
         <v>PCR[66]</v>
       </c>
       <c r="C19" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1698,22 +1769,22 @@
         <v>#N/A</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1728,22 +1799,22 @@
         <v>#N/A</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H21" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -1755,16 +1826,16 @@
       </c>
       <c r="B22" s="2" t="str">
         <f>VLOOKUP($C22:$C22,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[1]</v>
+        <v>PCR[0]</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>94</v>
+        <v>262</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
@@ -1773,19 +1844,16 @@
       </c>
       <c r="B23" s="2" t="str">
         <f>VLOOKUP($C23:$C23,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[2]</v>
+        <v>PCR[1]</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>263</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
@@ -1794,13 +1862,16 @@
       </c>
       <c r="B24" s="2" t="str">
         <f>VLOOKUP($C24:$C24,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[0]</v>
+        <v>PCR[2]</v>
       </c>
       <c r="C24" t="s">
-        <v>251</v>
+        <v>264</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
@@ -1809,22 +1880,16 @@
       </c>
       <c r="B25" s="2" t="str">
         <f>VLOOKUP($C25:$C25,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[4]</v>
-      </c>
-      <c r="C25" t="s">
-        <v>250</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>95</v>
+        <v>PCR[3]</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s">
-        <v>47</v>
-      </c>
-      <c r="H25" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
@@ -1833,13 +1898,16 @@
       </c>
       <c r="B26" s="2" t="str">
         <f>VLOOKUP($C26:$C26,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[5]</v>
-      </c>
-      <c r="C26" t="s">
-        <v>249</v>
+        <v>PCR[4]</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
@@ -1848,37 +1916,40 @@
       </c>
       <c r="B27" s="2" t="str">
         <f>VLOOKUP($C27:$C27,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[6]</v>
-      </c>
-      <c r="C27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>PCR[5]</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>261</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="str">
+      <c r="B28" s="2" t="e">
         <f>VLOOKUP($C28:$C28,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>PCR[3]</v>
+        <v>#N/A</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>273</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
@@ -1890,16 +1961,16 @@
         <v>PCR[68]</v>
       </c>
       <c r="C29" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
@@ -1911,16 +1982,16 @@
         <v>PCR[71]</v>
       </c>
       <c r="C30" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
@@ -1932,10 +2003,10 @@
         <v>PCR[24]</v>
       </c>
       <c r="C31" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
@@ -1947,13 +2018,13 @@
         <v>PCR[25]</v>
       </c>
       <c r="C32" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1962,16 +2033,16 @@
         <v>PCR[67]</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1980,16 +2051,16 @@
         <v>PCR[36]</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1998,16 +2069,16 @@
         <v>PCR[34]</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2016,16 +2087,16 @@
         <v>PCR[35]</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2034,52 +2105,52 @@
         <v>PCR[62]</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E37" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="e">
+      <c r="B38" s="2" t="str">
         <f>VLOOKUP($C38:$C38,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PCR[10]</v>
       </c>
       <c r="C38" t="s">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="e">
+      <c r="B39" s="2" t="str">
         <f>VLOOKUP($C39:$C39,Sheet2!$B$1:$C$77,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>PCR[11]</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>276</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2088,16 +2159,16 @@
         <v>PCR[37]</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2106,18 +2177,152 @@
         <v>PCR[43]</v>
       </c>
       <c r="C41" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f>VLOOKUP($C42:$C42,Sheet2!$B$1:$C$77,2,FALSE)</f>
+        <v>PCR[74]</v>
+      </c>
+      <c r="C42" t="s">
+        <v>246</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f>VLOOKUP($C43:$C43,Sheet2!$B$1:$C$77,2,FALSE)</f>
+        <v>PCR[75]</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f>VLOOKUP($C44:$C44,Sheet2!$B$1:$C$77,2,FALSE)</f>
+        <v>PCR[6]</v>
+      </c>
+      <c r="C44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f>VLOOKUP($C45:$C45,Sheet2!$B$1:$C$77,2,FALSE)</f>
+        <v>PCR[7]</v>
+      </c>
+      <c r="C45" t="s">
+        <v>267</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A1:I32">
@@ -2140,7 +2345,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2150,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2161,10 +2366,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2172,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2183,10 +2388,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2194,10 +2399,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2205,10 +2410,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2216,10 +2421,10 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2227,10 +2432,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2238,10 +2443,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2249,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2260,10 +2465,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -2271,10 +2476,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -2282,7 +2487,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>0</v>
@@ -2293,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -2304,7 +2509,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>3</v>
@@ -2315,7 +2520,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -2326,10 +2531,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2337,10 +2542,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2348,7 +2553,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>5</v>
@@ -2359,10 +2564,10 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -2370,10 +2575,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -2381,10 +2586,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -2392,10 +2597,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -2403,10 +2608,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -2414,10 +2619,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -2425,10 +2630,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -2436,10 +2641,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -2447,10 +2652,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -2458,10 +2663,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -2469,10 +2674,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -2480,10 +2685,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -2491,10 +2696,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -2502,10 +2707,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -2513,10 +2718,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -2524,10 +2729,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -2535,10 +2740,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -2546,10 +2751,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -2557,10 +2762,10 @@
         <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -2568,10 +2773,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -2579,10 +2784,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2590,10 +2795,10 @@
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2601,10 +2806,10 @@
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -2612,10 +2817,10 @@
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2623,10 +2828,10 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2634,10 +2839,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2645,10 +2850,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2656,10 +2861,10 @@
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2667,10 +2872,10 @@
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2678,10 +2883,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2689,10 +2894,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2700,10 +2905,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2711,10 +2916,10 @@
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2722,10 +2927,10 @@
         <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2733,10 +2938,10 @@
         <v>54</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
@@ -2744,10 +2949,10 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2755,10 +2960,10 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2766,10 +2971,10 @@
         <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2777,10 +2982,10 @@
         <v>58</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2788,10 +2993,10 @@
         <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
@@ -2799,10 +3004,10 @@
         <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2810,10 +3015,10 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2821,10 +3026,10 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2832,10 +3037,10 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2843,10 +3048,10 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
@@ -2854,10 +3059,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2865,10 +3070,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2876,10 +3081,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2887,10 +3092,10 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
@@ -2898,10 +3103,10 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2909,10 +3114,10 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2920,10 +3125,10 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2931,10 +3136,10 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2942,10 +3147,10 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2953,10 +3158,10 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2964,10 +3169,10 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
@@ -2975,10 +3180,10 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2986,10 +3191,10 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/资源分配.xlsx
+++ b/资源分配.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlecat\Desktop\system_board_0406_1245\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\littlecat\Documents\GitHub\system_board\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="4410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="396">
   <si>
     <t>PCR[12]</t>
   </si>
@@ -1048,10 +1048,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PE0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1359,6 +1355,14 @@
   </si>
   <si>
     <t>PD11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS3_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1451,6 +1455,12 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1490,12 +1500,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1523,10 +1527,10 @@
     <tableColumn id="5" name="模块"/>
     <tableColumn id="6" name="功能"/>
     <tableColumn id="7" name="Peripheral"/>
-    <tableColumn id="8" name="Function" dataDxfId="6">
+    <tableColumn id="8" name="Function" dataDxfId="2">
       <calculatedColumnFormula>IF($G2=Sheet3!$D$1,VLOOKUP($C2,Sheet3!$B$2:$D$78,3,FALSE),IF($G2=Sheet3!$C$1,VLOOKUP($C2,Sheet3!$B$2:D$78,2,FALSE),IF($G2=Sheet3!$E$1,VLOOKUP($C2,Sheet3!$B$2:D$78,4,FALSE),IF($G2=Sheet3!$F$1,VLOOKUP($C2,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="列2" dataDxfId="5">
+    <tableColumn id="9" name="列2" dataDxfId="1">
       <calculatedColumnFormula>CONCATENATE($G2," ",$H2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="列3"/>
@@ -1800,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1859,14 +1863,14 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H2" t="str">
         <f>IF($G2=Sheet3!$D$1,VLOOKUP($C2,Sheet3!$B$2:$D$78,3,FALSE),IF($G2=Sheet3!$C$1,VLOOKUP($C2,Sheet3!$B$2:D$78,2,FALSE),IF($G2=Sheet3!$E$1,VLOOKUP($C2,Sheet3!$B$2:D$78,4,FALSE),IF($G2=Sheet3!$F$1,VLOOKUP($C2,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[12]</v>
       </c>
       <c r="I2" t="str">
-        <f>CONCATENATE($G2," ",$H2)</f>
+        <f t="shared" ref="I2:I33" si="0">CONCATENATE($G2," ",$H2)</f>
         <v>GPIO [12]</v>
       </c>
     </row>
@@ -1885,14 +1889,14 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H3" t="str">
         <f>IF($G3=Sheet3!$D$1,VLOOKUP($C3,Sheet3!$B$2:$D$78,3,FALSE),IF($G3=Sheet3!$C$1,VLOOKUP($C3,Sheet3!$B$2:D$78,2,FALSE),IF($G3=Sheet3!$E$1,VLOOKUP($C3,Sheet3!$B$2:D$78,4,FALSE),IF($G3=Sheet3!$F$1,VLOOKUP($C3,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[13]</v>
       </c>
       <c r="I3" t="str">
-        <f>CONCATENATE($G3," ",$H3)</f>
+        <f t="shared" si="0"/>
         <v>GPIO [13]</v>
       </c>
     </row>
@@ -1911,14 +1915,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H4" t="str">
         <f>IF($G4=Sheet3!$D$1,VLOOKUP($C4,Sheet3!$B$2:$D$78,3,FALSE),IF($G4=Sheet3!$C$1,VLOOKUP($C4,Sheet3!$B$2:D$78,2,FALSE),IF($G4=Sheet3!$E$1,VLOOKUP($C4,Sheet3!$B$2:D$78,4,FALSE),IF($G4=Sheet3!$F$1,VLOOKUP($C4,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[14]</v>
       </c>
       <c r="I4" t="str">
-        <f>CONCATENATE($G4," ",$H4)</f>
+        <f t="shared" si="0"/>
         <v>GPIO [14]</v>
       </c>
     </row>
@@ -1937,14 +1941,14 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H5" t="str">
         <f>IF($G5=Sheet3!$D$1,VLOOKUP($C5,Sheet3!$B$2:$D$78,3,FALSE),IF($G5=Sheet3!$C$1,VLOOKUP($C5,Sheet3!$B$2:D$78,2,FALSE),IF($G5=Sheet3!$E$1,VLOOKUP($C5,Sheet3!$B$2:D$78,4,FALSE),IF($G5=Sheet3!$F$1,VLOOKUP($C5,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[15]</v>
       </c>
       <c r="I5" t="str">
-        <f>CONCATENATE($G5," ",$H5)</f>
+        <f t="shared" si="0"/>
         <v>GPIO [15]</v>
       </c>
     </row>
@@ -1970,7 +1974,7 @@
         <v>-</v>
       </c>
       <c r="I6" t="str">
-        <f>CONCATENATE($G6," ",$H6)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -1996,7 +2000,7 @@
         <v>-</v>
       </c>
       <c r="I7" t="str">
-        <f>CONCATENATE($G7," ",$H7)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2022,7 +2026,7 @@
         <v>-</v>
       </c>
       <c r="I8" t="str">
-        <f>CONCATENATE($G8," ",$H8)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2048,7 +2052,7 @@
         <v>-</v>
       </c>
       <c r="I9" t="str">
-        <f>CONCATENATE($G9," ",$H9)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2075,7 +2079,7 @@
         <v>-</v>
       </c>
       <c r="I10" t="str">
-        <f>CONCATENATE($G10," ",$H10)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2102,7 +2106,7 @@
         <v>-</v>
       </c>
       <c r="I11" t="str">
-        <f>CONCATENATE($G11," ",$H11)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2129,7 +2133,7 @@
         <v>E0CU[21]</v>
       </c>
       <c r="I12" t="str">
-        <f>CONCATENATE($G12," ",$H12)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[21]</v>
       </c>
     </row>
@@ -2156,7 +2160,7 @@
         <v>E0CU[22]</v>
       </c>
       <c r="I13" t="str">
-        <f>CONCATENATE($G13," ",$H13)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[22]</v>
       </c>
     </row>
@@ -2183,7 +2187,7 @@
         <v>E0CU[9]</v>
       </c>
       <c r="I14" t="str">
-        <f>CONCATENATE($G14," ",$H14)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[9]</v>
       </c>
     </row>
@@ -2210,7 +2214,7 @@
         <v>E0CU[12]</v>
       </c>
       <c r="I15" t="str">
-        <f>CONCATENATE($G15," ",$H15)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[12]</v>
       </c>
     </row>
@@ -2237,7 +2241,7 @@
         <v>E0CU[24]</v>
       </c>
       <c r="I16" t="str">
-        <f>CONCATENATE($G16," ",$H16)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[24]</v>
       </c>
     </row>
@@ -2256,14 +2260,14 @@
         <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H17" t="str">
         <f>IF($G17=Sheet3!$D$1,VLOOKUP($C17,Sheet3!$B$2:$D$78,3,FALSE),IF($G17=Sheet3!$C$1,VLOOKUP($C17,Sheet3!$B$2:D$78,2,FALSE),IF($G17=Sheet3!$E$1,VLOOKUP($C17,Sheet3!$B$2:D$78,4,FALSE),IF($G17=Sheet3!$F$1,VLOOKUP($C17,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[28]</v>
       </c>
       <c r="I17" t="str">
-        <f>CONCATENATE($G17," ",$H17)</f>
+        <f t="shared" si="0"/>
         <v>GPIO [28]</v>
       </c>
     </row>
@@ -2289,7 +2293,7 @@
         <v>E0CU[0]</v>
       </c>
       <c r="I18" t="str">
-        <f>CONCATENATE($G18," ",$H18)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[0]</v>
       </c>
     </row>
@@ -2316,7 +2320,7 @@
         <v>E0CU[1]</v>
       </c>
       <c r="I19" t="str">
-        <f>CONCATENATE($G19," ",$H19)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[1]</v>
       </c>
     </row>
@@ -2343,7 +2347,7 @@
         <v>E0CU[2]</v>
       </c>
       <c r="I20" t="str">
-        <f>CONCATENATE($G20," ",$H20)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[2]</v>
       </c>
     </row>
@@ -2370,7 +2374,7 @@
         <v>E0CU[3]</v>
       </c>
       <c r="I21" t="str">
-        <f>CONCATENATE($G21," ",$H21)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[3]</v>
       </c>
     </row>
@@ -2397,7 +2401,7 @@
         <v>E0CU[4]</v>
       </c>
       <c r="I22" t="str">
-        <f>CONCATENATE($G22," ",$H22)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[4]</v>
       </c>
     </row>
@@ -2424,7 +2428,7 @@
         <v>E0CU[5]</v>
       </c>
       <c r="I23" t="str">
-        <f>CONCATENATE($G23," ",$H23)</f>
+        <f t="shared" si="0"/>
         <v>eMIOS_0 E0CU[5]</v>
       </c>
     </row>
@@ -2443,14 +2447,14 @@
         <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H24" t="str">
         <f>IF($G24=Sheet3!$D$1,VLOOKUP($C24,Sheet3!$B$2:$D$78,3,FALSE),IF($G24=Sheet3!$C$1,VLOOKUP($C24,Sheet3!$B$2:D$78,2,FALSE),IF($G24=Sheet3!$E$1,VLOOKUP($C24,Sheet3!$B$2:D$78,4,FALSE),IF($G24=Sheet3!$F$1,VLOOKUP($C24,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[0]</v>
       </c>
       <c r="I24" t="str">
-        <f>CONCATENATE($G24," ",$H24)</f>
+        <f t="shared" si="0"/>
         <v>ANS [0]</v>
       </c>
     </row>
@@ -2470,14 +2474,14 @@
         <v>249</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H25" t="str">
         <f>IF($G25=Sheet3!$D$1,VLOOKUP($C25,Sheet3!$B$2:$D$78,3,FALSE),IF($G25=Sheet3!$C$1,VLOOKUP($C25,Sheet3!$B$2:D$78,2,FALSE),IF($G25=Sheet3!$E$1,VLOOKUP($C25,Sheet3!$B$2:D$78,4,FALSE),IF($G25=Sheet3!$F$1,VLOOKUP($C25,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[1]</v>
       </c>
       <c r="I25" t="str">
-        <f>CONCATENATE($G25," ",$H25)</f>
+        <f t="shared" si="0"/>
         <v>ANS [1]</v>
       </c>
     </row>
@@ -2503,7 +2507,7 @@
         <v>-</v>
       </c>
       <c r="I26" t="str">
-        <f>CONCATENATE($G26," ",$H26)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2530,7 +2534,7 @@
         <v>-</v>
       </c>
       <c r="I27" t="str">
-        <f>CONCATENATE($G27," ",$H27)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2556,7 +2560,7 @@
         <v>-</v>
       </c>
       <c r="I28" t="str">
-        <f>CONCATENATE($G28," ",$H28)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2582,7 +2586,7 @@
         <v>-</v>
       </c>
       <c r="I29" t="str">
-        <f>CONCATENATE($G29," ",$H29)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2608,7 +2612,7 @@
         <v>-</v>
       </c>
       <c r="I30" t="str">
-        <f>CONCATENATE($G30," ",$H30)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2634,7 +2638,7 @@
         <v>-</v>
       </c>
       <c r="I31" t="str">
-        <f>CONCATENATE($G31," ",$H31)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2660,7 +2664,7 @@
         <v>-</v>
       </c>
       <c r="I32" t="str">
-        <f>CONCATENATE($G32," ",$H32)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2676,17 +2680,17 @@
         <v>53</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H33" t="str">
         <f>IF($G33=Sheet3!$D$1,VLOOKUP($C33,Sheet3!$B$2:$D$78,3,FALSE),IF($G33=Sheet3!$C$1,VLOOKUP($C33,Sheet3!$B$2:D$78,2,FALSE),IF($G33=Sheet3!$E$1,VLOOKUP($C33,Sheet3!$B$2:D$78,4,FALSE),IF($G33=Sheet3!$F$1,VLOOKUP($C33,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[37]</v>
       </c>
       <c r="I33" t="str">
-        <f>CONCATENATE($G33," ",$H33)</f>
+        <f t="shared" si="0"/>
         <v>GPIO [37]</v>
       </c>
     </row>
@@ -2702,17 +2706,17 @@
         <v>54</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H34" t="str">
         <f>IF($G34=Sheet3!$D$1,VLOOKUP($C34,Sheet3!$B$2:$D$78,3,FALSE),IF($G34=Sheet3!$C$1,VLOOKUP($C34,Sheet3!$B$2:D$78,2,FALSE),IF($G34=Sheet3!$E$1,VLOOKUP($C34,Sheet3!$B$2:D$78,4,FALSE),IF($G34=Sheet3!$F$1,VLOOKUP($C34,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[43]</v>
       </c>
       <c r="I34" t="str">
-        <f>CONCATENATE($G34," ",$H34)</f>
+        <f t="shared" ref="I34:I57" si="1">CONCATENATE($G34," ",$H34)</f>
         <v>GPIO [43]</v>
       </c>
     </row>
@@ -2735,7 +2739,7 @@
         <v>-</v>
       </c>
       <c r="I35" t="str">
-        <f>CONCATENATE($G35," ",$H35)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2758,7 +2762,7 @@
         <v>-</v>
       </c>
       <c r="I36" t="str">
-        <f>CONCATENATE($G36," ",$H36)</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> -</v>
       </c>
     </row>
@@ -2785,7 +2789,7 @@
         <v>E0CU[6]</v>
       </c>
       <c r="I37" t="str">
-        <f>CONCATENATE($G37," ",$H37)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[6]</v>
       </c>
     </row>
@@ -2812,7 +2816,7 @@
         <v>E0CU[7]</v>
       </c>
       <c r="I38" t="str">
-        <f>CONCATENATE($G38," ",$H38)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[7]</v>
       </c>
     </row>
@@ -2835,14 +2839,14 @@
         <v>250</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H39" s="2" t="str">
         <f>IF($G39=Sheet3!$D$1,VLOOKUP($C39,Sheet3!$B$2:$D$78,3,FALSE),IF($G39=Sheet3!$C$1,VLOOKUP($C39,Sheet3!$B$2:D$78,2,FALSE),IF($G39=Sheet3!$E$1,VLOOKUP($C39,Sheet3!$B$2:D$78,4,FALSE),IF($G39=Sheet3!$F$1,VLOOKUP($C39,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[2]</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f>CONCATENATE($G39," ",$H39)</f>
+        <f t="shared" si="1"/>
         <v>ANS [2]</v>
       </c>
       <c r="J39" s="2"/>
@@ -2866,14 +2870,14 @@
         <v>255</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H40" s="2" t="str">
         <f>IF($G40=Sheet3!$D$1,VLOOKUP($C40,Sheet3!$B$2:$D$78,3,FALSE),IF($G40=Sheet3!$C$1,VLOOKUP($C40,Sheet3!$B$2:D$78,2,FALSE),IF($G40=Sheet3!$E$1,VLOOKUP($C40,Sheet3!$B$2:D$78,4,FALSE),IF($G40=Sheet3!$F$1,VLOOKUP($C40,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[48]</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f>CONCATENATE($G40," ",$H40)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [48]</v>
       </c>
       <c r="J40" s="2"/>
@@ -2897,14 +2901,14 @@
         <v>256</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H41" s="2" t="str">
         <f>IF($G41=Sheet3!$D$1,VLOOKUP($C41,Sheet3!$B$2:$D$78,3,FALSE),IF($G41=Sheet3!$C$1,VLOOKUP($C41,Sheet3!$B$2:D$78,2,FALSE),IF($G41=Sheet3!$E$1,VLOOKUP($C41,Sheet3!$B$2:D$78,4,FALSE),IF($G41=Sheet3!$F$1,VLOOKUP($C41,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[49]</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f>CONCATENATE($G41," ",$H41)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [49]</v>
       </c>
       <c r="J41" s="2"/>
@@ -2928,14 +2932,14 @@
         <v>257</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H42" s="2" t="str">
         <f>IF($G42=Sheet3!$D$1,VLOOKUP($C42,Sheet3!$B$2:$D$78,3,FALSE),IF($G42=Sheet3!$C$1,VLOOKUP($C42,Sheet3!$B$2:D$78,2,FALSE),IF($G42=Sheet3!$E$1,VLOOKUP($C42,Sheet3!$B$2:D$78,4,FALSE),IF($G42=Sheet3!$F$1,VLOOKUP($C42,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[50]</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f>CONCATENATE($G42," ",$H42)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [50]</v>
       </c>
       <c r="J42" s="2"/>
@@ -2959,14 +2963,14 @@
         <v>258</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H43" s="2" t="str">
         <f>IF($G43=Sheet3!$D$1,VLOOKUP($C43,Sheet3!$B$2:$D$78,3,FALSE),IF($G43=Sheet3!$C$1,VLOOKUP($C43,Sheet3!$B$2:D$78,2,FALSE),IF($G43=Sheet3!$E$1,VLOOKUP($C43,Sheet3!$B$2:D$78,4,FALSE),IF($G43=Sheet3!$F$1,VLOOKUP($C43,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[51]</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f>CONCATENATE($G43," ",$H43)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [51]</v>
       </c>
       <c r="J43" s="2"/>
@@ -2997,7 +3001,7 @@
         <v>E0CU[20]</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f>CONCATENATE($G44," ",$H44)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[20]</v>
       </c>
       <c r="J44" s="2"/>
@@ -3028,7 +3032,7 @@
         <v>E0CU[23]</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f>CONCATENATE($G45," ",$H45)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[23]</v>
       </c>
       <c r="J45" s="2"/>
@@ -3059,7 +3063,7 @@
         <v>E0CU[17]</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f>CONCATENATE($G46," ",$H46)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[17]</v>
       </c>
       <c r="J46" s="2"/>
@@ -3090,7 +3094,7 @@
         <v>E0CU[18]</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f>CONCATENATE($G47," ",$H47)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[18]</v>
       </c>
       <c r="J47" s="2"/>
@@ -3121,7 +3125,7 @@
         <v>E0CU[25]</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f>CONCATENATE($G48," ",$H48)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[25]</v>
       </c>
       <c r="J48" s="2"/>
@@ -3144,14 +3148,14 @@
         <v>243</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H49" s="2" t="str">
         <f>IF($G49=Sheet3!$D$1,VLOOKUP($C49,Sheet3!$B$2:$D$78,3,FALSE),IF($G49=Sheet3!$C$1,VLOOKUP($C49,Sheet3!$B$2:D$78,2,FALSE),IF($G49=Sheet3!$E$1,VLOOKUP($C49,Sheet3!$B$2:D$78,4,FALSE),IF($G49=Sheet3!$F$1,VLOOKUP($C49,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[29]</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f>CONCATENATE($G49," ",$H49)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [29]</v>
       </c>
     </row>
@@ -3181,7 +3185,7 @@
         <v>E0CU[27]</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f>CONCATENATE($G50," ",$H50)</f>
+        <f t="shared" si="1"/>
         <v>eMIOS_0 E0CU[27]</v>
       </c>
       <c r="J50" s="2"/>
@@ -3205,14 +3209,14 @@
         <v>244</v>
       </c>
       <c r="G51" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" t="str">
         <f>IF($G51=Sheet3!$D$1,VLOOKUP($C51,Sheet3!$B$2:$D$78,3,FALSE),IF($G51=Sheet3!$C$1,VLOOKUP($C51,Sheet3!$B$2:D$78,2,FALSE),IF($G51=Sheet3!$E$1,VLOOKUP($C51,Sheet3!$B$2:D$78,4,FALSE),IF($G51=Sheet3!$F$1,VLOOKUP($C51,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[31]</v>
       </c>
       <c r="I51" t="str">
-        <f>CONCATENATE($G51," ",$H51)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [31]</v>
       </c>
     </row>
@@ -3235,14 +3239,14 @@
         <v>251</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H52" s="2" t="str">
         <f>IF($G52=Sheet3!$D$1,VLOOKUP($C52,Sheet3!$B$2:$D$78,3,FALSE),IF($G52=Sheet3!$C$1,VLOOKUP($C52,Sheet3!$B$2:D$78,2,FALSE),IF($G52=Sheet3!$E$1,VLOOKUP($C52,Sheet3!$B$2:D$78,4,FALSE),IF($G52=Sheet3!$F$1,VLOOKUP($C52,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[3]</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f>CONCATENATE($G52," ",$H52)</f>
+        <f t="shared" si="1"/>
         <v>ANS [3]</v>
       </c>
       <c r="J52" s="2"/>
@@ -3266,14 +3270,14 @@
         <v>261</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H53" s="2" t="str">
         <f>IF($G53=Sheet3!$D$1,VLOOKUP($C53,Sheet3!$B$2:$D$78,3,FALSE),IF($G53=Sheet3!$C$1,VLOOKUP($C53,Sheet3!$B$2:D$78,2,FALSE),IF($G53=Sheet3!$E$1,VLOOKUP($C53,Sheet3!$B$2:D$78,4,FALSE),IF($G53=Sheet3!$F$1,VLOOKUP($C53,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[45]</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f>CONCATENATE($G53," ",$H53)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [45]</v>
       </c>
       <c r="J53" s="2"/>
@@ -3297,14 +3301,14 @@
         <v>260</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H54" s="2" t="str">
         <f>IF($G54=Sheet3!$D$1,VLOOKUP($C54,Sheet3!$B$2:$D$78,3,FALSE),IF($G54=Sheet3!$C$1,VLOOKUP($C54,Sheet3!$B$2:D$78,2,FALSE),IF($G54=Sheet3!$E$1,VLOOKUP($C54,Sheet3!$B$2:D$78,4,FALSE),IF($G54=Sheet3!$F$1,VLOOKUP($C54,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[46]</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f>CONCATENATE($G54," ",$H54)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [46]</v>
       </c>
       <c r="J54" s="2"/>
@@ -3328,14 +3332,14 @@
         <v>259</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H55" s="2" t="str">
         <f>IF($G55=Sheet3!$D$1,VLOOKUP($C55,Sheet3!$B$2:$D$78,3,FALSE),IF($G55=Sheet3!$C$1,VLOOKUP($C55,Sheet3!$B$2:D$78,2,FALSE),IF($G55=Sheet3!$E$1,VLOOKUP($C55,Sheet3!$B$2:D$78,4,FALSE),IF($G55=Sheet3!$F$1,VLOOKUP($C55,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[47]</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f>CONCATENATE($G55," ",$H55)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [47]</v>
       </c>
       <c r="J55" s="2"/>
@@ -3346,28 +3350,28 @@
       </c>
       <c r="B56" s="2" t="str">
         <f>VLOOKUP($C56:$C56,Sheet2!$B$2:$C$78,2,FALSE)</f>
-        <v>PCR[64]</v>
+        <v>PCR[74]</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>297</v>
+        <v>394</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="H56" s="5" t="str">
         <f>IF($G56=Sheet3!$D$1,VLOOKUP($C56,Sheet3!$B$2:$D$78,3,FALSE),IF($G56=Sheet3!$C$1,VLOOKUP($C56,Sheet3!$B$2:D$78,2,FALSE),IF($G56=Sheet3!$E$1,VLOOKUP($C56,Sheet3!$B$2:D$78,4,FALSE),IF($G56=Sheet3!$F$1,VLOOKUP($C56,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
-        <v>[64]</v>
+        <v>-</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f>CONCATENATE($G56," ",$H56)</f>
-        <v>GPIO [64]</v>
+        <f t="shared" si="1"/>
+        <v>CS3_1 -</v>
       </c>
       <c r="J56" s="2"/>
     </row>
@@ -3380,24 +3384,24 @@
         <v>PCR[59]</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>223</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="H57" s="5" t="str">
         <f>IF($G57=Sheet3!$D$1,VLOOKUP($C57,Sheet3!$B$2:$D$78,3,FALSE),IF($G57=Sheet3!$C$1,VLOOKUP($C57,Sheet3!$B$2:D$78,2,FALSE),IF($G57=Sheet3!$E$1,VLOOKUP($C57,Sheet3!$B$2:D$78,4,FALSE),IF($G57=Sheet3!$F$1,VLOOKUP($C57,Sheet3!$B$2:$F$78,5,FALSE),"-"))))</f>
         <v>[59]</v>
       </c>
       <c r="I57" s="5" t="str">
-        <f>CONCATENATE($G57," ",$H57)</f>
+        <f t="shared" si="1"/>
         <v>GPIO [59]</v>
       </c>
       <c r="J57" s="2"/>
@@ -3408,16 +3412,16 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E51">
-    <cfRule type="duplicateValues" dxfId="3" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E57">
-    <cfRule type="duplicateValues" dxfId="2" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3431,24 +3435,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4423,7 +4427,7 @@
       </c>
       <c r="D66" s="2" t="b">
         <f>IF(COUNTIF(Sheet1!$C$2:$C$101,B66),1=1,1=0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
@@ -4636,16 +4640,16 @@
         <v>262</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>264</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4656,7 +4660,7 @@
         <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" t="s">
         <v>265</v>
@@ -4670,7 +4674,7 @@
         <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>266</v>
@@ -4684,7 +4688,7 @@
         <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>267</v>
@@ -4698,13 +4702,13 @@
         <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -4715,7 +4719,7 @@
         <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>269</v>
@@ -4729,7 +4733,7 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>270</v>
@@ -4743,13 +4747,13 @@
         <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>271</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -4760,13 +4764,13 @@
         <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>272</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -4777,13 +4781,13 @@
         <v>116</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>273</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -4794,7 +4798,7 @@
         <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>274</v>
@@ -4808,7 +4812,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>275</v>
@@ -4822,7 +4826,7 @@
         <v>119</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>276</v>
@@ -4836,7 +4840,7 @@
         <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -4847,7 +4851,7 @@
         <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -4858,10 +4862,10 @@
         <v>122</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -4872,7 +4876,7 @@
         <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -4883,7 +4887,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -4894,7 +4898,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -4905,7 +4909,7 @@
         <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -4916,7 +4920,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -4927,7 +4931,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -4938,7 +4942,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -4949,7 +4953,7 @@
         <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -4960,7 +4964,7 @@
         <v>131</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -4971,10 +4975,10 @@
         <v>132</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -4985,10 +4989,10 @@
         <v>133</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -4999,10 +5003,10 @@
         <v>134</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -5013,13 +5017,13 @@
         <v>135</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>268</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -5030,7 +5034,7 @@
         <v>136</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>269</v>
@@ -5044,7 +5048,7 @@
         <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>270</v>
@@ -5058,7 +5062,7 @@
         <v>138</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>271</v>
@@ -5072,7 +5076,7 @@
         <v>139</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>272</v>
@@ -5086,7 +5090,7 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -5097,7 +5101,7 @@
         <v>141</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -5108,10 +5112,10 @@
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -5122,10 +5126,10 @@
         <v>143</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -5136,7 +5140,7 @@
         <v>144</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -5147,10 +5151,10 @@
         <v>145</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -5161,7 +5165,7 @@
         <v>146</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -5172,7 +5176,7 @@
         <v>147</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -5183,7 +5187,7 @@
         <v>148</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -5194,7 +5198,7 @@
         <v>149</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -5205,7 +5209,7 @@
         <v>150</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -5216,7 +5220,7 @@
         <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -5227,7 +5231,7 @@
         <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>277</v>
@@ -5241,7 +5245,7 @@
         <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>278</v>
@@ -5255,13 +5259,13 @@
         <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>279</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -5272,7 +5276,7 @@
         <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>280</v>
@@ -5286,7 +5290,7 @@
         <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -5297,7 +5301,7 @@
         <v>157</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -5308,7 +5312,7 @@
         <v>158</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -5319,7 +5323,7 @@
         <v>159</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -5330,7 +5334,7 @@
         <v>160</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -5341,7 +5345,7 @@
         <v>161</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -5352,7 +5356,7 @@
         <v>162</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -5363,7 +5367,7 @@
         <v>163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -5374,7 +5378,7 @@
         <v>164</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -5385,7 +5389,7 @@
         <v>165</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -5396,7 +5400,7 @@
         <v>166</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -5407,7 +5411,7 @@
         <v>167</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -5418,13 +5422,13 @@
         <v>168</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -5435,13 +5439,13 @@
         <v>169</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>282</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -5452,13 +5456,13 @@
         <v>170</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>283</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -5469,13 +5473,13 @@
         <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>284</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -5486,7 +5490,7 @@
         <v>172</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>285</v>
@@ -5500,7 +5504,7 @@
         <v>173</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>286</v>
@@ -5514,7 +5518,7 @@
         <v>174</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>287</v>
@@ -5528,7 +5532,7 @@
         <v>175</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>288</v>
@@ -5542,13 +5546,13 @@
         <v>176</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -5559,7 +5563,7 @@
         <v>177</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>290</v>
@@ -5573,7 +5577,7 @@
         <v>178</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>291</v>
@@ -5587,7 +5591,7 @@
         <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>292</v>
@@ -5601,7 +5605,7 @@
         <v>180</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>291</v>
@@ -5615,7 +5619,7 @@
         <v>181</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>292</v>
@@ -5629,10 +5633,10 @@
         <v>182</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -5643,7 +5647,7 @@
         <v>183</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -5654,10 +5658,10 @@
         <v>184</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
